--- a/보고/3팀보고.xlsx
+++ b/보고/3팀보고.xlsx
@@ -1,25 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryzen5_3600\Desktop\playground\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\web_개발\project\Playground\보고\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE75A3BB-4A3A-4B91-B9EC-0D35BB7A4E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="530"/>
+    <workbookView xWindow="828" yWindow="1524" windowWidth="17280" windowHeight="8880" tabRatio="530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>페이지</t>
   </si>
@@ -118,11 +132,35 @@
     <t>오류페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>공지사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 회원관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 게시판 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 학교 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 문의 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
@@ -351,7 +389,13 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -360,13 +404,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -378,60 +416,10 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="4" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
       </font>
       <fill>
         <patternFill>
@@ -461,7 +449,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="4"/>
       </font>
       <fill>
         <patternFill>
@@ -764,27 +752,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="8.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.59765625" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.375" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="8" customWidth="1"/>
-    <col min="7" max="22" width="10.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="22.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.3984375" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" style="8" customWidth="1"/>
+    <col min="7" max="22" width="10.59765625" style="4" customWidth="1"/>
     <col min="23" max="23" width="9" style="4" customWidth="1"/>
     <col min="24" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.4">
       <c r="E2" s="2"/>
       <c r="F2" s="3">
         <v>45178</v>
@@ -817,52 +805,52 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="6">
-        <f>AVERAGE(F14,F22,F29,F41,F49)</f>
+        <f t="shared" ref="F3:O3" si="0">AVERAGE(F14,F22,F29,F41,F49)</f>
         <v>0</v>
       </c>
       <c r="G3" s="6">
-        <f>AVERAGE(G14,G22,G29,G41,G49)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H3" s="6">
-        <f>AVERAGE(H14,H22,H29,H41,H49)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I3" s="6">
-        <f>AVERAGE(I14,I22,I29,I41,I49)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J3" s="6">
-        <f>AVERAGE(J14,J22,J29,J41,J49)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K3" s="6">
-        <f>AVERAGE(K14,K22,K29,K41,K49)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L3" s="6">
-        <f>AVERAGE(L14,L22,L29,L41,L49)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M3" s="6">
-        <f>AVERAGE(M14,M22,M29,M41,M49)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N3" s="6">
-        <f>AVERAGE(N14,N22,N29,N41,N49)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O3" s="6">
-        <f>AVERAGE(O14,O22,O29,O41,O49)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
         <v>0</v>
@@ -902,7 +890,7 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
@@ -944,9 +932,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="13"/>
-      <c r="C7" s="19"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="7" t="s">
         <v>23</v>
       </c>
@@ -982,9 +970,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B8" s="13"/>
-      <c r="C8" s="19"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="7" t="s">
         <v>21</v>
       </c>
@@ -1020,9 +1008,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B9" s="13"/>
-      <c r="C9" s="19"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="7" t="s">
         <v>20</v>
       </c>
@@ -1058,9 +1046,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="13"/>
-      <c r="C10" s="19"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="7" t="s">
         <v>24</v>
       </c>
@@ -1096,9 +1084,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B11" s="13"/>
-      <c r="C11" s="19"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="7" t="s">
         <v>22</v>
       </c>
@@ -1134,9 +1122,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B12" s="13"/>
-      <c r="C12" s="19"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="7" t="s">
         <v>19</v>
       </c>
@@ -1172,9 +1160,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B13" s="13"/>
-      <c r="C13" s="19"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="7" t="s">
         <v>25</v>
       </c>
@@ -1213,63 +1201,65 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B14" s="14"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="6">
-        <f>AVERAGE(F6:F13)</f>
+        <f t="shared" ref="F14:O14" si="1">AVERAGE(F6:F13)</f>
         <v>0</v>
       </c>
       <c r="G14" s="6">
-        <f>AVERAGE(G6:G13)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H14" s="6">
-        <f>AVERAGE(H6:H13)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I14" s="6">
-        <f>AVERAGE(I6:I13)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J14" s="6">
-        <f>AVERAGE(J6:J13)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K14" s="6">
-        <f>AVERAGE(K6:K13)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L14" s="6">
-        <f>AVERAGE(L6:L13)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M14" s="6">
-        <f>AVERAGE(M6:M13)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N14" s="6">
-        <f>AVERAGE(N6:N13)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O14" s="6">
-        <f>AVERAGE(O6:O13)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q14" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="21" t="s">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B15" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9">
         <v>0</v>
@@ -1305,10 +1295,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="22"/>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B16" s="19"/>
       <c r="C16" s="16"/>
-      <c r="D16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="E16" s="7"/>
       <c r="F16" s="9">
         <v>0</v>
@@ -1344,10 +1336,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B17" s="22"/>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B17" s="19"/>
       <c r="C17" s="16"/>
-      <c r="D17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="E17" s="7"/>
       <c r="F17" s="9">
         <v>0</v>
@@ -1383,10 +1377,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="22"/>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B18" s="19"/>
       <c r="C18" s="16"/>
-      <c r="D18" s="10"/>
+      <c r="D18" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="E18" s="7"/>
       <c r="F18" s="9">
         <v>0</v>
@@ -1419,10 +1415,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B19" s="22"/>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B19" s="19"/>
       <c r="C19" s="16"/>
-      <c r="D19" s="7"/>
+      <c r="D19" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="E19" s="7"/>
       <c r="F19" s="9">
         <v>0</v>
@@ -1455,10 +1453,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B20" s="22"/>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B20" s="19"/>
       <c r="C20" s="16"/>
-      <c r="D20" s="10"/>
+      <c r="D20" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="E20" s="7"/>
       <c r="F20" s="9">
         <v>0</v>
@@ -1491,8 +1491,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B21" s="22"/>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B21" s="19"/>
       <c r="C21" s="16"/>
       <c r="D21" s="10"/>
       <c r="E21" s="7"/>
@@ -1527,8 +1527,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="23"/>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B22" s="20"/>
       <c r="C22" s="17"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -1537,47 +1537,47 @@
         <v>0</v>
       </c>
       <c r="G22" s="6">
-        <f t="shared" ref="G22:O22" si="0">AVERAGE(G15:G21)</f>
+        <f t="shared" ref="G22:O22" si="2">AVERAGE(G15:G21)</f>
         <v>0</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I22" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J22" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K22" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L22" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M22" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N22" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O22" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B23" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="7"/>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B24" s="13"/>
       <c r="C24" s="16"/>
       <c r="D24" s="7"/>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B25" s="13"/>
       <c r="C25" s="16"/>
       <c r="D25" s="7"/>
@@ -1685,7 +1685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B26" s="13"/>
       <c r="C26" s="16"/>
       <c r="D26" s="7"/>
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B27" s="13"/>
       <c r="C27" s="16"/>
       <c r="D27" s="7"/>
@@ -1757,7 +1757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B28" s="13"/>
       <c r="C28" s="16"/>
       <c r="D28" s="7"/>
@@ -1793,7 +1793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B29" s="14"/>
       <c r="C29" s="17"/>
       <c r="D29" s="7"/>
@@ -1803,43 +1803,43 @@
         <v>0</v>
       </c>
       <c r="G29" s="6">
-        <f t="shared" ref="G29:O29" si="1">AVERAGE(G23:G28)</f>
+        <f t="shared" ref="G29:O29" si="3">AVERAGE(G23:G28)</f>
         <v>0</v>
       </c>
       <c r="H29" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I29" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J29" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K29" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L29" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M29" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N29" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O29" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B30" s="12" t="s">
         <v>5</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B31" s="13"/>
       <c r="C31" s="16"/>
       <c r="D31" s="7"/>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B32" s="13"/>
       <c r="C32" s="16"/>
       <c r="D32" s="7"/>
@@ -1951,7 +1951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B33" s="13"/>
       <c r="C33" s="16"/>
       <c r="D33" s="7"/>
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B34" s="13"/>
       <c r="C34" s="16"/>
       <c r="D34" s="7"/>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B35" s="13"/>
       <c r="C35" s="16"/>
       <c r="D35" s="7"/>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B36" s="13"/>
       <c r="C36" s="16"/>
       <c r="D36" s="7"/>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B37" s="13"/>
       <c r="C37" s="16"/>
       <c r="D37" s="7"/>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B38" s="13"/>
       <c r="C38" s="16"/>
       <c r="D38" s="7"/>
@@ -2167,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B39" s="13"/>
       <c r="C39" s="16"/>
       <c r="D39" s="7"/>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B40" s="13"/>
       <c r="C40" s="16"/>
       <c r="D40" s="7"/>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B41" s="14"/>
       <c r="C41" s="17"/>
       <c r="D41" s="7"/>
@@ -2249,43 +2249,43 @@
         <v>0</v>
       </c>
       <c r="G41" s="6">
-        <f t="shared" ref="G41:O41" si="2">AVERAGE(G30:G40)</f>
+        <f t="shared" ref="G41:O41" si="4">AVERAGE(G30:G40)</f>
         <v>0</v>
       </c>
       <c r="H41" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I41" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J41" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K41" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L41" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M41" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N41" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O41" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B42" s="12" t="s">
         <v>17</v>
       </c>
@@ -2325,9 +2325,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B43" s="13"/>
-      <c r="C43" s="19"/>
+      <c r="C43" s="21"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="9">
@@ -2361,9 +2361,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B44" s="13"/>
-      <c r="C44" s="19"/>
+      <c r="C44" s="21"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="9">
@@ -2397,9 +2397,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B45" s="13"/>
-      <c r="C45" s="19"/>
+      <c r="C45" s="21"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="9">
@@ -2433,9 +2433,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B46" s="13"/>
-      <c r="C46" s="19"/>
+      <c r="C46" s="21"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="9">
@@ -2469,9 +2469,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B47" s="13"/>
-      <c r="C47" s="19"/>
+      <c r="C47" s="21"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="9">
@@ -2505,9 +2505,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="13"/>
-      <c r="C48" s="19"/>
+      <c r="C48" s="21"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="9">
@@ -2541,116 +2541,135 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B49" s="14"/>
-      <c r="C49" s="20"/>
+      <c r="C49" s="22"/>
       <c r="D49" s="7"/>
       <c r="F49" s="6">
         <f>AVERAGE(F42:F48)</f>
         <v>0</v>
       </c>
       <c r="G49" s="6">
-        <f t="shared" ref="G49:O49" si="3">AVERAGE(G42:G48)</f>
+        <f t="shared" ref="G49:O49" si="5">AVERAGE(G42:G48)</f>
         <v>0</v>
       </c>
       <c r="H49" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I49" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J49" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K49" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L49" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M49" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N49" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O49" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.4">
       <c r="E50" s="8"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.4">
       <c r="E51" s="8"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.4">
       <c r="E52" s="8"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.4">
       <c r="E53" s="8"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.4">
       <c r="E54" s="8"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.4">
       <c r="E55" s="8"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.4">
       <c r="E56" s="8"/>
       <c r="F56" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B42:B49"/>
+    <mergeCell ref="C42:C49"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="C23:C29"/>
     <mergeCell ref="B30:B41"/>
     <mergeCell ref="C30:C41"/>
     <mergeCell ref="B6:B14"/>
     <mergeCell ref="B15:B22"/>
     <mergeCell ref="C15:C22"/>
     <mergeCell ref="C6:C14"/>
-    <mergeCell ref="B42:B49"/>
-    <mergeCell ref="C42:C49"/>
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="C23:C29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B15:C15 E15 B16:E21 B42 D13 D7:D10 D28:E28 B23:C23">
-    <cfRule type="cellIs" dxfId="8" priority="176" operator="equal">
+  <conditionalFormatting sqref="B15:C15 E15 B16:E21 B23:C23 D28:E28 B42">
+    <cfRule type="cellIs" dxfId="5" priority="176" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:D36">
-    <cfRule type="cellIs" dxfId="7" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="99" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48:E48 C42">
-    <cfRule type="cellIs" dxfId="6" priority="137" operator="equal">
+  <conditionalFormatting sqref="C42 D48:E48">
+    <cfRule type="cellIs" dxfId="3" priority="137" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:D13">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37:D40">
-    <cfRule type="cellIs" dxfId="5" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="100" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E7">
-    <cfRule type="cellIs" dxfId="4" priority="437" operator="equal">
+  <conditionalFormatting sqref="E6:E10 B8:B10">
+    <cfRule type="cellIs" dxfId="0" priority="189" operator="equal">
       <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23:F28">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{200EB0A9-E50E-4D7B-81FC-D6B5C5318E58}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30:F40">
@@ -2663,6 +2682,74 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{5717478E-22D2-2A31-5717-478E22D22A31}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15:O16 F17:G21">
+    <cfRule type="dataBar" priority="462">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B5F5A5EC-C5F3-C2D3-B5F5-A5ECC5F3C2D3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15:O16">
+    <cfRule type="dataBar" priority="24">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{31712168-4477-4657-3171-216844774657}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42:O48">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9BA6F4FF-9998-4C29-B66D-7EB818FEAD16}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{35ACB5A8-2C25-4FE2-9A84-75807869EF8E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:G28">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{15392C86-4399-4B7A-AFFA-162CFC9F8E26}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2681,6 +2768,48 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G30:O30">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{85C595DC-F2C7-F2E3-85C5-95DCF2C7F2E3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23:H28">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{63DB3C3A-3B48-46D9-92ED-5E7C499B66EE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:O21 T15:V21 G15:O16">
+    <cfRule type="dataBar" priority="465">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DD9DCD84-A899-AABB-DD9D-CD84A899AABB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H30:O40 T30:V40">
     <cfRule type="dataBar" priority="456">
       <dataBar>
@@ -2691,6 +2820,76 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{DB9BCB82-AE8E-ACBD-DB9B-CB82AE8EACBD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23:O28">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DA104626-4CF2-4FF1-BCA6-644D51356822}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T6:V7 H6:O13">
+    <cfRule type="dataBar" priority="473">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E1411158-7444-7667-E141-115874447667}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T8:V13 F6:G13">
+    <cfRule type="dataBar" priority="470">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9DDD8DC4-E8D9-EAFB-9DDD-8DC4E8D9EAFB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T8:V13">
+    <cfRule type="dataBar" priority="454">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8DCD9DD4-F8C8-FAEB-8DCD-9DD4F8C8FAEB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T28:V28">
+    <cfRule type="dataBar" priority="460">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E3A3F3BA-96B5-9485-E3A3-F3BA96B59485}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2709,222 +2908,22 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T28:V28">
-    <cfRule type="dataBar" priority="460">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E3A3F3BA-96B5-9485-E3A3-F3BA96B59485}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30:O30">
-    <cfRule type="dataBar" priority="9">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{85C595DC-F2C7-F2E3-85C5-95DCF2C7F2E3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B10 E8:E10">
-    <cfRule type="cellIs" dxfId="3" priority="189" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T8:V13">
-    <cfRule type="dataBar" priority="454">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8DCD9DD4-F8C8-FAEB-8DCD-9DD4F8C8FAEB}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15:O16">
-    <cfRule type="dataBar" priority="24">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{31712168-4477-4657-3171-216844774657}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15:O16 F17:G21">
-    <cfRule type="dataBar" priority="462">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B5F5A5EC-C5F3-C2D3-B5F5-A5ECC5F3C2D3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17:O21 T15:V21 G15:O16">
-    <cfRule type="dataBar" priority="465">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DD9DCD84-A899-AABB-DD9D-CD84A899AABB}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42:O48">
-    <cfRule type="dataBar" priority="7">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9BA6F4FF-9998-4C29-B66D-7EB818FEAD16}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42:O48">
-    <cfRule type="dataBar" priority="8">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{35ACB5A8-2C25-4FE2-9A84-75807869EF8E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D11">
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T8:V13 F6:G13">
-    <cfRule type="dataBar" priority="470">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9DDD8DC4-E8D9-EAFB-9DDD-8DC4E8D9EAFB}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T6:V7 H6:O13">
-    <cfRule type="dataBar" priority="473">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E1411158-7444-7667-E141-115874447667}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23:O28">
-    <cfRule type="dataBar" priority="5">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DA104626-4CF2-4FF1-BCA6-644D51356822}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23:F28">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{200EB0A9-E50E-4D7B-81FC-D6B5C5318E58}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23:G28">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{15392C86-4399-4B7A-AFFA-162CFC9F8E26}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23:H28">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{63DB3C3A-3B48-46D9-92ED-5E7C499B66EE}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{200EB0A9-E50E-4D7B-81FC-D6B5C5318E58}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F23:F28</xm:sqref>
+        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5717478E-22D2-2A31-5717-478E22D22A31}">
             <x14:dataBar minLength="0" maxLength="100">
@@ -2935,6 +2934,58 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>F30:F40</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B5F5A5EC-C5F3-C2D3-B5F5-A5ECC5F3C2D3}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F15:O16 F17:G21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{31712168-4477-4657-3171-216844774657}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F15:O16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9BA6F4FF-9998-4C29-B66D-7EB818FEAD16}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{35ACB5A8-2C25-4FE2-9A84-75807869EF8E}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F42:O48</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{15392C86-4399-4B7A-AFFA-162CFC9F8E26}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G23:G28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D393C38A-A686-A4B5-D393-C38AA686A4B5}">
@@ -2948,6 +2999,39 @@
           <xm:sqref>G31:G40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{85C595DC-F2C7-F2E3-85C5-95DCF2C7F2E3}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G30:O30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{63DB3C3A-3B48-46D9-92ED-5E7C499B66EE}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H23:H28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DD9DCD84-A899-AABB-DD9D-CD84A899AABB}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H17:O21 T15:V21 G15:O16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DB9BCB82-AE8E-ACBD-DB9B-CB82AE8EACBD}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
@@ -2959,7 +3043,7 @@
           <xm:sqref>H30:O40 T30:V40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6727773E-1231-1DC1-6727-773E12311DC1}">
+          <x14:cfRule type="dataBar" id="{DA104626-4CF2-4FF1-BCA6-644D51356822}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2967,7 +3051,40 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>T48:V48</xm:sqref>
+          <xm:sqref>I23:O28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E1411158-7444-7667-E141-115874447667}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>T6:V7 H6:O13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9DDD8DC4-E8D9-EAFB-9DDD-8DC4E8D9EAFB}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>T8:V13 F6:G13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8DCD9DD4-F8C8-FAEB-8DCD-9DD4F8C8FAEB}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>T8:V13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E3A3F3BA-96B5-9485-E3A3-F3BA96B59485}">
@@ -2981,7 +3098,7 @@
           <xm:sqref>T28:V28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{85C595DC-F2C7-F2E3-85C5-95DCF2C7F2E3}">
+          <x14:cfRule type="dataBar" id="{6727773E-1231-1DC1-6727-773E12311DC1}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2989,139 +3106,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G30:O30</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8DCD9DD4-F8C8-FAEB-8DCD-9DD4F8C8FAEB}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>T8:V13</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{31712168-4477-4657-3171-216844774657}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F15:O16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B5F5A5EC-C5F3-C2D3-B5F5-A5ECC5F3C2D3}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F15:O16 F17:G21</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DD9DCD84-A899-AABB-DD9D-CD84A899AABB}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H17:O21 T15:V21 G15:O16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9BA6F4FF-9998-4C29-B66D-7EB818FEAD16}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F42:O48</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{35ACB5A8-2C25-4FE2-9A84-75807869EF8E}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F42:O48</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9DDD8DC4-E8D9-EAFB-9DDD-8DC4E8D9EAFB}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>T8:V13 F6:G13</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E1411158-7444-7667-E141-115874447667}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>T6:V7 H6:O13</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DA104626-4CF2-4FF1-BCA6-644D51356822}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>I23:O28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{200EB0A9-E50E-4D7B-81FC-D6B5C5318E58}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F23:F28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{15392C86-4399-4B7A-AFFA-162CFC9F8E26}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G23:G28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{63DB3C3A-3B48-46D9-92ED-5E7C499B66EE}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H23:H28</xm:sqref>
+          <xm:sqref>T48:V48</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/보고/3팀보고.xlsx
+++ b/보고/3팀보고.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryzen5_3600\Desktop\playground\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryzen5_3600\Desktop\playground\보고\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -107,15 +107,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>프로필 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>예상문제 수정/삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>오류페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -351,7 +351,13 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -360,13 +366,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -378,17 +378,7 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="4" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -442,26 +432,6 @@
     <dxf>
       <font>
         <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
@@ -768,7 +738,7 @@
   <dimension ref="B2:Q56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -822,43 +792,43 @@
         <v>1</v>
       </c>
       <c r="F3" s="6">
-        <f>AVERAGE(F14,F22,F29,F41,F49)</f>
+        <f t="shared" ref="F3:O3" si="0">AVERAGE(F14,F22,F29,F41,F49)</f>
         <v>0</v>
       </c>
       <c r="G3" s="6">
-        <f>AVERAGE(G14,G22,G29,G41,G49)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H3" s="6">
-        <f>AVERAGE(H14,H22,H29,H41,H49)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I3" s="6">
-        <f>AVERAGE(I14,I22,I29,I41,I49)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7.375000000000001E-2</v>
       </c>
       <c r="J3" s="6">
-        <f>AVERAGE(J14,J22,J29,J41,J49)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7.375000000000001E-2</v>
       </c>
       <c r="K3" s="6">
-        <f>AVERAGE(K14,K22,K29,K41,K49)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L3" s="6">
-        <f>AVERAGE(L14,L22,L29,L41,L49)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M3" s="6">
-        <f>AVERAGE(M14,M22,M29,M41,M49)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N3" s="6">
-        <f>AVERAGE(N14,N22,N29,N41,N49)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O3" s="6">
-        <f>AVERAGE(O14,O22,O29,O41,O49)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -902,7 +872,7 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
@@ -910,23 +880,23 @@
         <v>12</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="E6" s="5"/>
       <c r="F6" s="9">
         <v>0</v>
       </c>
       <c r="G6" s="9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H6" s="9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I6" s="9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J6" s="9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K6" s="9">
         <v>0</v>
@@ -946,9 +916,9 @@
     </row>
     <row r="7" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="7" t="s">
-        <v>23</v>
+      <c r="C7" s="21"/>
+      <c r="D7" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="9">
@@ -961,10 +931,10 @@
         <v>0</v>
       </c>
       <c r="I7" s="9">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="J7" s="9">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="K7" s="9">
         <v>0</v>
@@ -984,7 +954,7 @@
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="13"/>
-      <c r="C8" s="19"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="7" t="s">
         <v>21</v>
       </c>
@@ -1022,7 +992,7 @@
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="13"/>
-      <c r="C9" s="19"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="7" t="s">
         <v>20</v>
       </c>
@@ -1060,9 +1030,9 @@
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="13"/>
-      <c r="C10" s="19"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="9">
@@ -1098,7 +1068,7 @@
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" s="13"/>
-      <c r="C11" s="19"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="7" t="s">
         <v>22</v>
       </c>
@@ -1136,7 +1106,7 @@
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="13"/>
-      <c r="C12" s="19"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="7" t="s">
         <v>19</v>
       </c>
@@ -1151,10 +1121,10 @@
         <v>0</v>
       </c>
       <c r="I12" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="J12" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="K12" s="9">
         <v>0</v>
@@ -1174,9 +1144,9 @@
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" s="13"/>
-      <c r="C13" s="19"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9">
@@ -1189,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="I13" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="J13" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="K13" s="9">
         <v>0</v>
@@ -1215,7 +1185,7 @@
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="14"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="6">
@@ -1223,39 +1193,39 @@
         <v>0</v>
       </c>
       <c r="G14" s="6">
-        <f>AVERAGE(G6:G13)</f>
-        <v>0</v>
+        <f t="shared" ref="G14:O14" si="1">AVERAGE(G6:G13)</f>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="H14" s="6">
-        <f>AVERAGE(H6:H13)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="I14" s="6">
-        <f>AVERAGE(I6:I13)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.36875000000000002</v>
       </c>
       <c r="J14" s="6">
-        <f>AVERAGE(J6:J13)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.36875000000000002</v>
       </c>
       <c r="K14" s="6">
-        <f>AVERAGE(K6:K13)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L14" s="6">
-        <f>AVERAGE(L6:L13)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M14" s="6">
-        <f>AVERAGE(M6:M13)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N14" s="6">
-        <f>AVERAGE(N6:N13)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O14" s="6">
-        <f>AVERAGE(O6:O13)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q14" s="4" t="s">
@@ -1263,7 +1233,7 @@
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="15" t="s">
@@ -1306,7 +1276,7 @@
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="22"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="16"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -1345,7 +1315,7 @@
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B17" s="22"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="16"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -1384,7 +1354,7 @@
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="22"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="16"/>
       <c r="D18" s="10"/>
       <c r="E18" s="7"/>
@@ -1420,7 +1390,7 @@
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B19" s="22"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="16"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -1456,7 +1426,7 @@
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B20" s="22"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="16"/>
       <c r="D20" s="10"/>
       <c r="E20" s="7"/>
@@ -1492,7 +1462,7 @@
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B21" s="22"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="16"/>
       <c r="D21" s="10"/>
       <c r="E21" s="7"/>
@@ -1528,7 +1498,7 @@
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="23"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="17"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -1537,39 +1507,39 @@
         <v>0</v>
       </c>
       <c r="G22" s="6">
-        <f t="shared" ref="G22:O22" si="0">AVERAGE(G15:G21)</f>
+        <f t="shared" ref="G22:O22" si="2">AVERAGE(G15:G21)</f>
         <v>0</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I22" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J22" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K22" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L22" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M22" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N22" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O22" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1577,7 +1547,7 @@
       <c r="B23" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="7"/>
@@ -1803,39 +1773,39 @@
         <v>0</v>
       </c>
       <c r="G29" s="6">
-        <f t="shared" ref="G29:O29" si="1">AVERAGE(G23:G28)</f>
+        <f t="shared" ref="G29:O29" si="3">AVERAGE(G23:G28)</f>
         <v>0</v>
       </c>
       <c r="H29" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I29" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J29" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K29" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L29" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M29" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N29" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O29" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2249,39 +2219,39 @@
         <v>0</v>
       </c>
       <c r="G41" s="6">
-        <f t="shared" ref="G41:O41" si="2">AVERAGE(G30:G40)</f>
+        <f t="shared" ref="G41:O41" si="4">AVERAGE(G30:G40)</f>
         <v>0</v>
       </c>
       <c r="H41" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I41" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J41" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K41" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L41" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M41" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N41" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O41" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2327,7 +2297,7 @@
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B43" s="13"/>
-      <c r="C43" s="19"/>
+      <c r="C43" s="21"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="9">
@@ -2363,7 +2333,7 @@
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B44" s="13"/>
-      <c r="C44" s="19"/>
+      <c r="C44" s="21"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="9">
@@ -2399,7 +2369,7 @@
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B45" s="13"/>
-      <c r="C45" s="19"/>
+      <c r="C45" s="21"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="9">
@@ -2435,7 +2405,7 @@
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B46" s="13"/>
-      <c r="C46" s="19"/>
+      <c r="C46" s="21"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="9">
@@ -2471,7 +2441,7 @@
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B47" s="13"/>
-      <c r="C47" s="19"/>
+      <c r="C47" s="21"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="9">
@@ -2507,7 +2477,7 @@
     </row>
     <row r="48" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="13"/>
-      <c r="C48" s="19"/>
+      <c r="C48" s="21"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="9">
@@ -2543,46 +2513,46 @@
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B49" s="14"/>
-      <c r="C49" s="20"/>
+      <c r="C49" s="22"/>
       <c r="D49" s="7"/>
       <c r="F49" s="6">
         <f>AVERAGE(F42:F48)</f>
         <v>0</v>
       </c>
       <c r="G49" s="6">
-        <f t="shared" ref="G49:O49" si="3">AVERAGE(G42:G48)</f>
+        <f t="shared" ref="G49:O49" si="5">AVERAGE(G42:G48)</f>
         <v>0</v>
       </c>
       <c r="H49" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I49" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J49" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K49" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L49" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M49" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N49" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O49" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2616,40 +2586,40 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B30:B41"/>
-    <mergeCell ref="C30:C41"/>
-    <mergeCell ref="B6:B14"/>
-    <mergeCell ref="B15:B22"/>
-    <mergeCell ref="C15:C22"/>
-    <mergeCell ref="C6:C14"/>
     <mergeCell ref="B42:B49"/>
     <mergeCell ref="C42:C49"/>
     <mergeCell ref="B23:B29"/>
     <mergeCell ref="C23:C29"/>
+    <mergeCell ref="B6:B14"/>
+    <mergeCell ref="C6:C14"/>
+    <mergeCell ref="B30:B41"/>
+    <mergeCell ref="C30:C41"/>
+    <mergeCell ref="B15:B22"/>
+    <mergeCell ref="C15:C22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B15:C15 E15 B16:E21 B42 D13 D7:D10 D28:E28 B23:C23">
-    <cfRule type="cellIs" dxfId="8" priority="176" operator="equal">
+  <conditionalFormatting sqref="B15:C15 E15 B16:E21 B42 D13 D28:E28 B23:C23 D8:D10">
+    <cfRule type="cellIs" dxfId="7" priority="176" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:D36">
-    <cfRule type="cellIs" dxfId="7" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="99" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:E48 C42">
-    <cfRule type="cellIs" dxfId="6" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="137" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37:D40">
-    <cfRule type="cellIs" dxfId="5" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="100" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E7">
-    <cfRule type="cellIs" dxfId="4" priority="437" operator="equal">
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="3" priority="437" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2737,8 +2707,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B10 E8:E10">
-    <cfRule type="cellIs" dxfId="3" priority="189" operator="equal">
+  <conditionalFormatting sqref="E8:E10">
+    <cfRule type="cellIs" dxfId="2" priority="189" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2827,11 +2797,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D11">
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T8:V13 F6:G13">
+  <conditionalFormatting sqref="T8:V13 F6:J13">
     <cfRule type="dataBar" priority="470">
       <dataBar>
         <cfvo type="min"/>
@@ -2841,20 +2811,6 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{9DDD8DC4-E8D9-EAFB-9DDD-8DC4E8D9EAFB}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T6:V7 H6:O13">
-    <cfRule type="dataBar" priority="473">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E1411158-7444-7667-E141-115874447667}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2916,8 +2872,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T7:V7 K6:O13">
+    <cfRule type="dataBar" priority="482">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E1411158-7444-7667-E141-115874447667}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3066,18 +3036,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>T8:V13 F6:G13</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E1411158-7444-7667-E141-115874447667}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>T6:V7 H6:O13</xm:sqref>
+          <xm:sqref>T8:V13 F6:J13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DA104626-4CF2-4FF1-BCA6-644D51356822}">
@@ -3123,6 +3082,17 @@
           </x14:cfRule>
           <xm:sqref>H23:H28</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E1411158-7444-7667-E141-115874447667}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>T7:V7 K6:O13</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
